--- a/zad5.xlsx
+++ b/zad5.xlsx
@@ -123,7 +123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -168,7 +168,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1316,24 +1316,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51526272"/>
-        <c:axId val="49537408"/>
+        <c:axId val="88389504"/>
+        <c:axId val="88391040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="51526272"/>
+        <c:axId val="88389504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49537408"/>
+        <c:crossAx val="88391040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="49537408"/>
+        <c:axId val="88391040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,7 +1341,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51526272"/>
+        <c:crossAx val="88389504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1354,7 +1354,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1687,7 +1687,7 @@
   <dimension ref="A1:Y185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+      <selection activeCell="V3" sqref="V3:Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1879,7 +1879,7 @@
         <v>700</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D67" si="5">IF(B4=0, 0.03/100 * J3 * POWER(A4, 1.5), 0)</f>
+        <f t="shared" ref="D4:D5" si="5">IF(B4=0, 0.03/100 * J3 * POWER(A4, 1.5), 0)</f>
         <v>0</v>
       </c>
       <c r="E4" t="str">
@@ -2268,9 +2268,6 @@
         <f t="shared" si="10"/>
         <v>42102</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>23</v>
       </c>
@@ -2287,7 +2284,7 @@
         <v>1326.6200000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" ht="15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2337,6 +2334,9 @@
       <c r="M10" s="1">
         <f t="shared" si="10"/>
         <v>42103</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:25">
